--- a/CashFlow/ALXN_cashflow.xlsx
+++ b/CashFlow/ALXN_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2023500000.0</v>
+        <v>-1800000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2670000000.0</v>
+        <v>95000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1843000000.0</v>
+        <v>617700000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1032100000.0</v>
+        <v>531000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>441300000.0</v>
+        <v>570600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-156900000.0</v>
+        <v>522100000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-167800000.0</v>
@@ -885,22 +885,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>951600000.0</v>
+        <v>72300000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1933000000.0</v>
+        <v>122500000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2781000000.0</v>
+        <v>47300000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2875500000.0</v>
+        <v>118600000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2045300000.0</v>
+        <v>170700000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1174100000.0</v>
+        <v>230700000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>319300000.0</v>
@@ -4047,10 +4047,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>-391300000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-510800000.0</v>
